--- a/sources/Buriat_data.xlsx
+++ b/sources/Buriat_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Buriat" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Buriat!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Buriat!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="732">
   <si>
     <t>language_no</t>
   </si>
@@ -1653,18 +1653,12 @@
     <t>Х</t>
   </si>
   <si>
-    <t>GENNOM</t>
-  </si>
-  <si>
     <t>дара-гд-</t>
   </si>
   <si>
     <t>DAT</t>
   </si>
   <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
     <t>Одолеть-PASS. Это не первая, а третья предложенная конструкция, но единственная, где есть название болезни как актант</t>
   </si>
   <si>
@@ -1674,9 +1668,6 @@
     <t>ABL</t>
   </si>
   <si>
-    <t>NOMABL</t>
-  </si>
-  <si>
     <t>шүдэ-</t>
   </si>
   <si>
@@ -1686,9 +1677,6 @@
     <t>хүртэ-</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
     <t>адли</t>
   </si>
   <si>
@@ -1719,9 +1707,6 @@
     <t>COM</t>
   </si>
   <si>
-    <t>NOMCOM</t>
-  </si>
-  <si>
     <t>оро-</t>
   </si>
   <si>
@@ -1731,12 +1716,6 @@
     <t>гара-</t>
   </si>
   <si>
-    <t>сооhоо</t>
-  </si>
-  <si>
-    <t>NOMsoohoo</t>
-  </si>
-  <si>
     <t>соо-hоо = в-ABL. Тот же глагол (но другая модель управления), что 68</t>
   </si>
   <si>
@@ -1821,12 +1800,6 @@
     <t>наада-</t>
   </si>
   <si>
-    <t>дээрэ</t>
-  </si>
-  <si>
-    <t>NOMdeere</t>
-  </si>
-  <si>
     <t>холуур  яба-</t>
   </si>
   <si>
@@ -1881,16 +1854,7 @@
     <t>INSTR</t>
   </si>
   <si>
-    <t>NOMINSTR</t>
-  </si>
-  <si>
     <t>Вариант глагола взят из комментария носителя на полях. Управление такое же</t>
-  </si>
-  <si>
-    <t>тухай</t>
-  </si>
-  <si>
-    <t>NOMtuxai</t>
   </si>
   <si>
     <t>Тот же глагол, что 25, 76 (но другая модель управления)</t>
@@ -1915,12 +1879,6 @@
   </si>
   <si>
     <t>нэрэ-тэй</t>
-  </si>
-  <si>
-    <t>гэжэ</t>
-  </si>
-  <si>
-    <t>NOMgezhe</t>
   </si>
   <si>
     <t>Букв.: "Этот предмет  компас говорить-CONV   имя-COM "</t>
@@ -2098,12 +2056,6 @@
     <t>Получен только тот же перевод, что для 20, 48, 76 (думать и т.д.), не засчитываю</t>
   </si>
   <si>
-    <t>хойноhоо</t>
-  </si>
-  <si>
-    <t>NOMxojnohoo</t>
-  </si>
-  <si>
     <t>Букв. "идти за кем-то", то же, что 74 (покидать)</t>
   </si>
   <si>
@@ -2146,9 +2098,6 @@
     <t>сэн-тэй</t>
   </si>
   <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
     <t>NV. "цена-COM"</t>
   </si>
   <si>
@@ -2164,12 +2113,6 @@
     <t>шэнгэ-</t>
   </si>
   <si>
-    <t>соо</t>
-  </si>
-  <si>
-    <t>NOMsoo</t>
-  </si>
-  <si>
     <t>ала-</t>
   </si>
   <si>
@@ -2255,6 +2198,72 @@
   </si>
   <si>
     <t>Buriat</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>GEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_ABL</t>
+  </si>
+  <si>
+    <t>NOM_COM</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_deere</t>
+  </si>
+  <si>
+    <t>deere</t>
+  </si>
+  <si>
+    <t>gezhe</t>
+  </si>
+  <si>
+    <t>NOM_gezhe</t>
+  </si>
+  <si>
+    <t>NOM_INSTR</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
+  </si>
+  <si>
+    <t>soohoo</t>
+  </si>
+  <si>
+    <t>tuxai</t>
+  </si>
+  <si>
+    <t>xojnoha</t>
+  </si>
+  <si>
+    <t>soo</t>
+  </si>
+  <si>
+    <t>NOM_soo</t>
+  </si>
+  <si>
+    <t>NOM_xojnohoo</t>
+  </si>
+  <si>
+    <t>NOM_tuxai</t>
+  </si>
+  <si>
+    <t>NOM_soohoo</t>
   </si>
 </sst>
 </file>
@@ -2643,11 +2652,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2670,9 +2677,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2730,13 +2739,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2766,7 +2781,7 @@
         <v>538</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>539</v>
+        <v>714</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2775,13 +2790,15 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2799,36 +2816,38 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>543</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S3" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2846,19 +2865,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>546</v>
+        <v>715</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2867,13 +2886,15 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -2891,17 +2912,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2910,13 +2933,15 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -2934,10 +2959,10 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>537</v>
@@ -2946,7 +2971,7 @@
         <v>538</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>550</v>
+        <v>713</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2954,14 +2979,16 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="5"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -2979,36 +3006,38 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>552</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -3026,19 +3055,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3047,13 +3076,15 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -3071,17 +3102,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3090,13 +3123,15 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -3114,34 +3149,38 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>556</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S10" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3159,36 +3198,38 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>558</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S11" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -3206,19 +3247,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3227,13 +3268,15 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -3251,19 +3294,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3272,13 +3315,15 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -3296,17 +3341,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3314,14 +3361,16 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S14" s="5"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -3339,36 +3388,38 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>565</v>
+        <v>724</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>567</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S15" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -3386,17 +3437,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3404,14 +3457,16 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -3429,17 +3484,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3448,13 +3505,15 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -3472,34 +3531,38 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K18" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>571</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S18" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -3517,34 +3580,38 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>573</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S19" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -3562,17 +3629,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K20" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3580,14 +3649,16 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -3605,17 +3676,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K21" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3624,13 +3697,15 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -3648,36 +3723,38 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>577</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -3695,34 +3772,38 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K23" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>578</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S23" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -3740,36 +3821,38 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>580</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -3787,19 +3870,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3808,13 +3891,15 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -3832,34 +3917,38 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K26" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>583</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S26" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -3877,17 +3966,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3896,13 +3987,15 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -3920,17 +4013,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3939,13 +4034,15 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C29" s="4">
         <v>28</v>
@@ -3963,17 +4060,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K29" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3982,13 +4081,15 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C30" s="4">
         <v>29</v>
@@ -4006,17 +4107,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K30" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4024,14 +4127,16 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="5"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -4049,36 +4154,38 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>589</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S31" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C32" s="4">
         <v>31</v>
@@ -4096,17 +4203,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4115,13 +4224,15 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C33" s="4">
         <v>32</v>
@@ -4139,19 +4250,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4160,13 +4271,15 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C34" s="4">
         <v>33</v>
@@ -4184,34 +4297,38 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K34" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>593</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S34" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C35" s="4">
         <v>34</v>
@@ -4229,19 +4346,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>595</v>
+        <v>719</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>596</v>
+        <v>718</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4250,13 +4367,15 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -4274,36 +4393,38 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>598</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S36" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C37" s="4">
         <v>36</v>
@@ -4321,17 +4442,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4340,13 +4463,15 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C38" s="4">
         <v>37</v>
@@ -4364,17 +4489,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K38" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4383,13 +4510,15 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C39" s="4">
         <v>38</v>
@@ -4407,10 +4536,10 @@
         <v>169</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>537</v>
@@ -4419,7 +4548,7 @@
         <v>538</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>550</v>
+        <v>713</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4428,13 +4557,15 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -4452,17 +4583,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K40" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4471,13 +4604,15 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T40" s="7"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C41" s="4">
         <v>40</v>
@@ -4495,17 +4630,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4514,13 +4651,15 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T41" s="7"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C42" s="4">
         <v>41</v>
@@ -4538,17 +4677,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4557,13 +4698,15 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T42" s="7"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C43" s="4">
         <v>42</v>
@@ -4581,32 +4724,36 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K43" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
-        <v>606</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S43" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C44" s="4">
         <v>43</v>
@@ -4624,34 +4771,38 @@
         <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K44" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>607</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S44" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="T44" s="7"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -4669,17 +4820,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4688,13 +4841,15 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T45" s="7"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>52</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -4712,36 +4867,38 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>610</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S46" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C47" s="4">
         <v>46</v>
@@ -4759,36 +4916,38 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>612</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S47" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C48" s="4">
         <v>47</v>
@@ -4806,36 +4965,38 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>616</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S48" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C49" s="4">
         <v>48</v>
@@ -4853,36 +5014,38 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>617</v>
+        <v>725</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>619</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S49" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C50" s="4">
         <v>49</v>
@@ -4900,17 +5063,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K50" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4919,13 +5084,15 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C51" s="4">
         <v>50</v>
@@ -4943,17 +5110,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4962,13 +5131,15 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T51" s="7"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C52" s="4">
         <v>51</v>
@@ -4986,36 +5157,38 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>623</v>
+        <v>720</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>625</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S52" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C53" s="4">
         <v>52</v>
@@ -5033,17 +5206,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -5052,13 +5227,15 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T53" s="7"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C54" s="4">
         <v>53</v>
@@ -5076,19 +5253,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5097,13 +5274,15 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T54" s="7"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C55" s="4">
         <v>54</v>
@@ -5121,19 +5300,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5142,13 +5321,15 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T55" s="7"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -5166,17 +5347,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5185,13 +5368,15 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T56" s="7"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C57" s="4">
         <v>56</v>
@@ -5209,10 +5394,10 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>537</v>
@@ -5221,7 +5406,7 @@
         <v>538</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>550</v>
+        <v>713</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5230,13 +5415,15 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="T57" s="7"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C58" s="4">
         <v>57</v>
@@ -5254,36 +5441,38 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>632</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S58" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -5301,10 +5490,10 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>537</v>
@@ -5313,24 +5502,26 @@
         <v>538</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>634</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -5348,10 +5539,10 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>537</v>
@@ -5360,24 +5551,26 @@
         <v>538</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>636</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S60" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C61" s="4">
         <v>60</v>
@@ -5395,34 +5588,38 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>638</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S61" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="T61" s="7"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>52</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C62" s="6">
         <v>61</v>
@@ -5440,10 +5637,10 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>537</v>
@@ -5452,7 +5649,7 @@
         <v>538</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>550</v>
+        <v>713</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5461,13 +5658,15 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T62" s="7"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>52</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C63" s="4">
         <v>62</v>
@@ -5485,19 +5684,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5506,13 +5705,15 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T63" s="7"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>52</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C64" s="4">
         <v>63</v>
@@ -5530,34 +5731,38 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>642</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S64" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="T64" s="7"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>52</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C65" s="4">
         <v>64</v>
@@ -5575,36 +5780,38 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>644</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>52</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C66" s="4">
         <v>65</v>
@@ -5622,36 +5829,38 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>646</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S66" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C67" s="4">
         <v>66</v>
@@ -5669,36 +5878,38 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>595</v>
+        <v>719</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>648</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S67" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>52</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C68" s="4">
         <v>67</v>
@@ -5716,32 +5927,36 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J68" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K68" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>649</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S68" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="T68" s="7"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>52</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C69" s="4">
         <v>68</v>
@@ -5759,34 +5974,38 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K69" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>650</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S69" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
@@ -5804,17 +6023,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5823,13 +6044,15 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T70" s="7"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>52</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C71" s="4">
         <v>70</v>
@@ -5847,17 +6070,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5866,13 +6091,15 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T71" s="7"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C72" s="4">
         <v>71</v>
@@ -5890,17 +6117,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5909,13 +6138,15 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T72" s="7"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>52</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -5933,17 +6164,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5952,13 +6185,15 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T73" s="7"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>52</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -5976,19 +6211,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5997,13 +6232,15 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T74" s="7"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>52</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C75" s="4">
         <v>74</v>
@@ -6021,36 +6258,38 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>657</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S75" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>52</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C76" s="4">
         <v>75</v>
@@ -6068,32 +6307,36 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L76" s="5"/>
-      <c r="M76" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S76" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="T76" s="7"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>52</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -6111,34 +6354,38 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>659</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S77" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>52</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -6156,19 +6403,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6177,13 +6424,15 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="7"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -6201,34 +6450,38 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>661</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S79" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>52</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -6246,36 +6499,38 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>663</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S80" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>52</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C81" s="4">
         <v>80</v>
@@ -6293,36 +6548,38 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>665</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S81" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>52</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C82" s="4">
         <v>81</v>
@@ -6340,19 +6597,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6361,13 +6618,15 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T82" s="7"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C83" s="4">
         <v>82</v>
@@ -6385,36 +6644,38 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>668</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S83" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>52</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -6432,19 +6693,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6453,13 +6714,15 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T84" s="7"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>52</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -6477,19 +6740,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6498,13 +6761,15 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T85" s="7"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>52</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C86" s="4">
         <v>85</v>
@@ -6522,17 +6787,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K86" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6541,13 +6808,15 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C87" s="4">
         <v>86</v>
@@ -6565,17 +6834,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K87" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6584,13 +6855,15 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T87" s="7"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>52</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C88" s="4">
         <v>87</v>
@@ -6608,34 +6881,38 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K88" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S88" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="T88" s="7"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>52</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C89" s="4">
         <v>88</v>
@@ -6653,32 +6930,36 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K89" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L89" s="5"/>
-      <c r="M89" s="5" t="s">
-        <v>675</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S89" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="T89" s="7"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>52</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C90" s="4">
         <v>89</v>
@@ -6696,36 +6977,38 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>676</v>
+        <v>726</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>678</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S90" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>52</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C91" s="4">
         <v>90</v>
@@ -6743,36 +7026,38 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>679</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S91" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>52</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C92" s="4">
         <v>91</v>
@@ -6790,34 +7075,38 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K92" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S92" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>52</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C93" s="4">
         <v>92</v>
@@ -6835,34 +7124,38 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K93" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>682</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S93" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>52</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C94" s="4">
         <v>93</v>
@@ -6880,34 +7173,38 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>683</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S94" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="T94" s="7"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>52</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C95" s="4">
         <v>94</v>
@@ -6925,19 +7222,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6946,13 +7243,15 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T95" s="7"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>52</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C96" s="4">
         <v>95</v>
@@ -6970,34 +7269,38 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K96" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S96" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="T96" s="7"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>52</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C97" s="4">
         <v>96</v>
@@ -7015,34 +7318,38 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>686</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S97" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>52</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C98" s="4">
         <v>97</v>
@@ -7060,10 +7367,10 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>537</v>
@@ -7072,24 +7379,26 @@
         <v>538</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>688</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S98" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="T98" s="7"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>52</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C99" s="4">
         <v>98</v>
@@ -7107,19 +7416,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7128,13 +7437,15 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T99" s="7"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>52</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C100" s="4">
         <v>99</v>
@@ -7152,36 +7463,38 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>580</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S100" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>52</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C101" s="4">
         <v>100</v>
@@ -7199,7 +7512,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>537</v>
@@ -7211,24 +7524,26 @@
         <v>9</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S101" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>52</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C102" s="4">
         <v>101</v>
@@ -7246,17 +7561,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J102" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K102" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7265,13 +7582,15 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T102" s="7"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>52</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C103" s="4">
         <v>102</v>
@@ -7289,17 +7608,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7308,13 +7629,15 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T103" s="7"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>52</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C104" s="4">
         <v>103</v>
@@ -7332,17 +7655,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7351,13 +7676,15 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T104" s="7"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>52</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C105" s="4">
         <v>104</v>
@@ -7375,19 +7702,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7396,13 +7723,15 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T105" s="7"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>52</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C106" s="4">
         <v>105</v>
@@ -7420,17 +7749,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7439,13 +7770,15 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T106" s="7"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>52</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C107" s="4">
         <v>106</v>
@@ -7463,17 +7796,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K107" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7482,13 +7817,15 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T107" s="7"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>52</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C108" s="4">
         <v>107</v>
@@ -7506,17 +7843,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K108" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7525,13 +7864,15 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T108" s="7"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>52</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C109" s="4">
         <v>108</v>
@@ -7549,17 +7890,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7568,13 +7911,15 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T109" s="7"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>52</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C110" s="4">
         <v>109</v>
@@ -7592,19 +7937,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7612,14 +7957,16 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S110" s="5"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>52</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C111" s="4">
         <v>110</v>
@@ -7637,17 +7984,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K111" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7655,14 +8004,16 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S111" s="5"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>52</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C112" s="4">
         <v>111</v>
@@ -7680,32 +8031,36 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J112" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K112" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L112" s="5"/>
-      <c r="M112" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>52</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C113" s="4">
         <v>112</v>
@@ -7723,32 +8078,36 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J113" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K113" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L113" s="5"/>
-      <c r="M113" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>52</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C114" s="4">
         <v>113</v>
@@ -7766,19 +8125,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7786,14 +8145,16 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="5"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>52</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C115" s="4">
         <v>114</v>
@@ -7811,19 +8172,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -7831,14 +8192,16 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="5"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>52</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C116" s="4">
         <v>115</v>
@@ -7856,17 +8219,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K116" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -7874,14 +8239,16 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S116" s="5"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>52</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C117" s="4">
         <v>116</v>
@@ -7899,19 +8266,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -7919,14 +8286,16 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S117" s="5"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>52</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C118" s="4">
         <v>117</v>
@@ -7944,36 +8313,38 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>52</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C119" s="4">
         <v>118</v>
@@ -7991,36 +8362,38 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>715</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S119" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>52</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C120" s="4">
         <v>119</v>
@@ -8038,36 +8411,38 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>52</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
@@ -8085,19 +8460,19 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8106,13 +8481,15 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T121" s="7"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>52</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C122" s="4">
         <v>121</v>
@@ -8130,32 +8507,36 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K122" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L122" s="5"/>
-      <c r="M122" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S122" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="T122" s="7"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>52</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C123" s="4">
         <v>122</v>
@@ -8173,36 +8554,38 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>719</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S123" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>52</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C124" s="4">
         <v>123</v>
@@ -8220,19 +8603,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8241,13 +8624,15 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T124" s="7"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>52</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C125" s="4">
         <v>124</v>
@@ -8265,34 +8650,38 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K125" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>722</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S125" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>52</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C126" s="4">
         <v>125</v>
@@ -8310,32 +8699,36 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K126" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L126" s="5"/>
-      <c r="M126" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S126" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T126" s="7"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>52</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C127" s="4">
         <v>126</v>
@@ -8353,32 +8746,36 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K127" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S127" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>52</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C128" s="4">
         <v>127</v>
@@ -8396,19 +8793,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>542</v>
+        <v>717</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8417,13 +8814,15 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T128" s="7"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>52</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C129" s="4">
         <v>128</v>
@@ -8441,36 +8840,38 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>725</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S129" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>52</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C130" s="4">
         <v>129</v>
@@ -8488,32 +8889,36 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="J130" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K130" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S130" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="T130" s="7"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>52</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C131" s="4">
         <v>130</v>
@@ -8531,19 +8936,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>546</v>
+        <v>715</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8552,9 +8957,11 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="5"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Buriat_data.xlsx
+++ b/sources/Buriat_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="731">
   <si>
     <t>language_no</t>
   </si>
@@ -1648,9 +1648,6 @@
   </si>
   <si>
     <t>NOM</t>
-  </si>
-  <si>
-    <t>Х</t>
   </si>
   <si>
     <t>дара-гд-</t>
@@ -2654,7 +2651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2740,10 +2739,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2751,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2778,10 +2777,10 @@
         <v>537</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2798,7 +2797,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2816,19 +2815,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2837,7 +2836,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="5"/>
@@ -2847,7 +2846,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2865,19 +2864,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2894,7 +2893,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -2912,19 +2911,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2941,7 +2940,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -2959,19 +2958,19 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2988,7 +2987,7 @@
         <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -3006,19 +3005,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -3027,7 +3026,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="9"/>
@@ -3037,7 +3036,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -3055,19 +3054,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3084,7 +3083,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -3102,19 +3101,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3131,7 +3130,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -3149,19 +3148,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3170,7 +3169,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="5"/>
@@ -3180,7 +3179,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3198,19 +3197,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -3219,7 +3218,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="5"/>
@@ -3229,7 +3228,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -3247,19 +3246,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3276,7 +3275,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -3294,19 +3293,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3323,7 +3322,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -3341,19 +3340,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3370,7 +3369,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -3388,19 +3387,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3409,7 +3408,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="9"/>
@@ -3419,7 +3418,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -3437,19 +3436,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3466,7 +3465,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -3484,19 +3483,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3513,7 +3512,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -3531,19 +3530,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3552,7 +3551,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="5"/>
@@ -3562,7 +3561,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -3580,19 +3579,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3601,7 +3600,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="5"/>
@@ -3611,7 +3610,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -3629,19 +3628,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3658,7 +3657,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -3676,19 +3675,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3705,7 +3704,7 @@
         <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -3723,19 +3722,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3744,7 +3743,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="9"/>
@@ -3754,7 +3753,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -3772,19 +3771,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3793,7 +3792,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="5"/>
@@ -3803,7 +3802,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -3821,19 +3820,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3842,7 +3841,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="9"/>
@@ -3852,7 +3851,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -3870,19 +3869,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3899,7 +3898,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -3917,19 +3916,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3938,7 +3937,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="5"/>
@@ -3948,7 +3947,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -3966,19 +3965,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3995,7 +3994,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -4013,19 +4012,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -4042,7 +4041,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C29" s="4">
         <v>28</v>
@@ -4060,19 +4059,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4089,7 +4088,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C30" s="4">
         <v>29</v>
@@ -4107,19 +4106,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4136,7 +4135,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -4154,19 +4153,19 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -4175,7 +4174,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="5"/>
@@ -4185,7 +4184,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C32" s="4">
         <v>31</v>
@@ -4203,19 +4202,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4232,7 +4231,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C33" s="4">
         <v>32</v>
@@ -4250,19 +4249,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4279,7 +4278,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C34" s="4">
         <v>33</v>
@@ -4297,19 +4296,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4318,7 +4317,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="5"/>
@@ -4328,7 +4327,7 @@
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C35" s="4">
         <v>34</v>
@@ -4346,19 +4345,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4375,7 +4374,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -4393,19 +4392,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4414,7 +4413,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="T36" s="7"/>
       <c r="U36" s="5"/>
@@ -4424,7 +4423,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C37" s="4">
         <v>36</v>
@@ -4442,19 +4441,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4471,7 +4470,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C38" s="4">
         <v>37</v>
@@ -4489,19 +4488,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4518,7 +4517,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C39" s="4">
         <v>38</v>
@@ -4536,19 +4535,19 @@
         <v>169</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4565,7 +4564,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -4583,19 +4582,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4612,7 +4611,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C41" s="4">
         <v>40</v>
@@ -4630,19 +4629,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4659,7 +4658,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C42" s="4">
         <v>41</v>
@@ -4677,19 +4676,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4706,7 +4705,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C43" s="4">
         <v>42</v>
@@ -4724,16 +4723,16 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4743,7 +4742,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="5"/>
@@ -4753,7 +4752,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C44" s="4">
         <v>43</v>
@@ -4771,19 +4770,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4792,7 +4791,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="5"/>
@@ -4802,7 +4801,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -4820,19 +4819,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4849,7 +4848,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -4867,19 +4866,19 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4888,7 +4887,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T46" s="7"/>
       <c r="U46" s="5"/>
@@ -4898,7 +4897,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C47" s="4">
         <v>46</v>
@@ -4916,19 +4915,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4937,7 +4936,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T47" s="7"/>
       <c r="U47" s="5"/>
@@ -4947,7 +4946,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C48" s="4">
         <v>47</v>
@@ -4965,19 +4964,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4986,7 +4985,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T48" s="7"/>
       <c r="U48" s="5"/>
@@ -4996,7 +4995,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C49" s="4">
         <v>48</v>
@@ -5014,19 +5013,19 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -5035,7 +5034,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T49" s="7"/>
       <c r="U49" s="5"/>
@@ -5045,7 +5044,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C50" s="4">
         <v>49</v>
@@ -5063,19 +5062,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5092,7 +5091,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C51" s="4">
         <v>50</v>
@@ -5110,19 +5109,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -5139,7 +5138,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C52" s="4">
         <v>51</v>
@@ -5157,19 +5156,19 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -5178,7 +5177,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T52" s="7"/>
       <c r="U52" s="5"/>
@@ -5188,7 +5187,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C53" s="4">
         <v>52</v>
@@ -5206,19 +5205,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -5235,7 +5234,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C54" s="4">
         <v>53</v>
@@ -5253,19 +5252,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5282,7 +5281,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C55" s="4">
         <v>54</v>
@@ -5300,19 +5299,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5329,7 +5328,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -5347,19 +5346,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5376,7 +5375,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C57" s="4">
         <v>56</v>
@@ -5394,19 +5393,19 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5423,7 +5422,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C58" s="4">
         <v>57</v>
@@ -5441,19 +5440,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5462,7 +5461,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T58" s="7"/>
       <c r="U58" s="5"/>
@@ -5472,7 +5471,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -5490,19 +5489,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5511,7 +5510,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T59" s="7"/>
       <c r="U59" s="5"/>
@@ -5521,7 +5520,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -5539,19 +5538,19 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5560,7 +5559,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T60" s="7"/>
       <c r="U60" s="5"/>
@@ -5570,7 +5569,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C61" s="4">
         <v>60</v>
@@ -5588,19 +5587,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5609,7 +5608,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="5"/>
@@ -5619,7 +5618,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C62" s="6">
         <v>61</v>
@@ -5637,19 +5636,19 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5666,7 +5665,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C63" s="4">
         <v>62</v>
@@ -5684,19 +5683,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5713,7 +5712,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C64" s="4">
         <v>63</v>
@@ -5731,19 +5730,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5752,7 +5751,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="5"/>
@@ -5762,7 +5761,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C65" s="4">
         <v>64</v>
@@ -5780,19 +5779,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5801,7 +5800,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T65" s="7"/>
       <c r="U65" s="5"/>
@@ -5811,7 +5810,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C66" s="4">
         <v>65</v>
@@ -5829,19 +5828,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -5850,7 +5849,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T66" s="7"/>
       <c r="U66" s="5"/>
@@ -5860,7 +5859,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C67" s="4">
         <v>66</v>
@@ -5878,19 +5877,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5899,7 +5898,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="5"/>
@@ -5909,7 +5908,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C68" s="4">
         <v>67</v>
@@ -5927,16 +5926,16 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -5946,7 +5945,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T68" s="7"/>
       <c r="U68" s="5"/>
@@ -5956,7 +5955,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C69" s="4">
         <v>68</v>
@@ -5974,19 +5973,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5995,7 +5994,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T69" s="7"/>
       <c r="U69" s="5"/>
@@ -6005,7 +6004,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
@@ -6023,19 +6022,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -6052,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C71" s="4">
         <v>70</v>
@@ -6070,19 +6069,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -6099,7 +6098,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C72" s="4">
         <v>71</v>
@@ -6117,19 +6116,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -6146,7 +6145,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -6164,19 +6163,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -6193,7 +6192,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -6211,19 +6210,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -6240,7 +6239,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C75" s="4">
         <v>74</v>
@@ -6258,19 +6257,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -6279,7 +6278,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T75" s="7"/>
       <c r="U75" s="5"/>
@@ -6289,7 +6288,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C76" s="4">
         <v>75</v>
@@ -6307,16 +6306,16 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -6326,7 +6325,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T76" s="7"/>
       <c r="U76" s="5"/>
@@ -6336,7 +6335,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -6354,19 +6353,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -6375,7 +6374,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T77" s="7"/>
       <c r="U77" s="5"/>
@@ -6385,7 +6384,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -6403,19 +6402,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6432,7 +6431,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -6450,19 +6449,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6471,7 +6470,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T79" s="7"/>
       <c r="U79" s="5"/>
@@ -6481,7 +6480,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -6499,19 +6498,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6520,7 +6519,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T80" s="7"/>
       <c r="U80" s="5"/>
@@ -6530,7 +6529,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C81" s="4">
         <v>80</v>
@@ -6548,19 +6547,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6569,7 +6568,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T81" s="7"/>
       <c r="U81" s="5"/>
@@ -6579,7 +6578,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C82" s="4">
         <v>81</v>
@@ -6597,19 +6596,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6626,7 +6625,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C83" s="4">
         <v>82</v>
@@ -6644,19 +6643,19 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6665,7 +6664,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T83" s="7"/>
       <c r="U83" s="5"/>
@@ -6675,7 +6674,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -6693,19 +6692,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6722,7 +6721,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -6740,19 +6739,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6769,7 +6768,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C86" s="4">
         <v>85</v>
@@ -6787,19 +6786,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6816,7 +6815,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C87" s="4">
         <v>86</v>
@@ -6834,19 +6833,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6863,7 +6862,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C88" s="4">
         <v>87</v>
@@ -6881,19 +6880,19 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6902,7 +6901,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T88" s="7"/>
       <c r="U88" s="5"/>
@@ -6912,7 +6911,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C89" s="4">
         <v>88</v>
@@ -6930,16 +6929,16 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -6949,7 +6948,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T89" s="7"/>
       <c r="U89" s="5"/>
@@ -6959,7 +6958,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C90" s="4">
         <v>89</v>
@@ -6977,19 +6976,19 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6998,7 +6997,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T90" s="7"/>
       <c r="U90" s="5"/>
@@ -7008,7 +7007,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C91" s="4">
         <v>90</v>
@@ -7026,19 +7025,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -7047,7 +7046,7 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T91" s="7"/>
       <c r="U91" s="5"/>
@@ -7057,7 +7056,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C92" s="4">
         <v>91</v>
@@ -7075,19 +7074,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -7096,7 +7095,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T92" s="7"/>
       <c r="U92" s="5"/>
@@ -7106,7 +7105,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C93" s="4">
         <v>92</v>
@@ -7124,19 +7123,19 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -7145,7 +7144,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T93" s="7"/>
       <c r="U93" s="5"/>
@@ -7155,7 +7154,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C94" s="4">
         <v>93</v>
@@ -7173,19 +7172,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7194,7 +7193,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="T94" s="7"/>
       <c r="U94" s="5"/>
@@ -7204,7 +7203,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C95" s="4">
         <v>94</v>
@@ -7222,19 +7221,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7251,7 +7250,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C96" s="4">
         <v>95</v>
@@ -7269,19 +7268,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7290,7 +7289,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T96" s="7"/>
       <c r="U96" s="5"/>
@@ -7300,7 +7299,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C97" s="4">
         <v>96</v>
@@ -7318,19 +7317,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -7339,7 +7338,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T97" s="7"/>
       <c r="U97" s="5"/>
@@ -7349,7 +7348,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C98" s="4">
         <v>97</v>
@@ -7367,19 +7366,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>537</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7388,7 +7387,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T98" s="7"/>
       <c r="U98" s="5"/>
@@ -7398,7 +7397,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C99" s="4">
         <v>98</v>
@@ -7416,19 +7415,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7445,7 +7444,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C100" s="4">
         <v>99</v>
@@ -7463,19 +7462,19 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7484,7 +7483,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T100" s="7"/>
       <c r="U100" s="5"/>
@@ -7494,7 +7493,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C101" s="4">
         <v>100</v>
@@ -7512,7 +7511,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>537</v>
@@ -7524,7 +7523,7 @@
         <v>9</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7533,7 +7532,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T101" s="7"/>
       <c r="U101" s="5"/>
@@ -7543,7 +7542,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C102" s="4">
         <v>101</v>
@@ -7561,19 +7560,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7590,7 +7589,7 @@
         <v>52</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C103" s="4">
         <v>102</v>
@@ -7608,19 +7607,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7637,7 +7636,7 @@
         <v>52</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C104" s="4">
         <v>103</v>
@@ -7655,19 +7654,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7684,7 +7683,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C105" s="4">
         <v>104</v>
@@ -7702,19 +7701,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7731,7 +7730,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C106" s="4">
         <v>105</v>
@@ -7749,19 +7748,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7778,7 +7777,7 @@
         <v>52</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C107" s="4">
         <v>106</v>
@@ -7796,19 +7795,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7825,7 +7824,7 @@
         <v>52</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C108" s="4">
         <v>107</v>
@@ -7843,19 +7842,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7872,7 +7871,7 @@
         <v>52</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C109" s="4">
         <v>108</v>
@@ -7890,19 +7889,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7919,7 +7918,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C110" s="4">
         <v>109</v>
@@ -7937,19 +7936,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7966,7 +7965,7 @@
         <v>52</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C111" s="4">
         <v>110</v>
@@ -7984,19 +7983,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -8013,7 +8012,7 @@
         <v>52</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C112" s="4">
         <v>111</v>
@@ -8031,16 +8030,16 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -8050,7 +8049,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
@@ -8060,7 +8059,7 @@
         <v>52</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C113" s="4">
         <v>112</v>
@@ -8078,16 +8077,16 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
@@ -8097,7 +8096,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
@@ -8107,7 +8106,7 @@
         <v>52</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C114" s="4">
         <v>113</v>
@@ -8125,19 +8124,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -8154,7 +8153,7 @@
         <v>52</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C115" s="4">
         <v>114</v>
@@ -8172,19 +8171,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -8201,7 +8200,7 @@
         <v>52</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C116" s="4">
         <v>115</v>
@@ -8219,19 +8218,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -8248,7 +8247,7 @@
         <v>52</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C117" s="4">
         <v>116</v>
@@ -8266,19 +8265,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -8295,7 +8294,7 @@
         <v>52</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C118" s="4">
         <v>117</v>
@@ -8313,19 +8312,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -8334,7 +8333,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
@@ -8344,7 +8343,7 @@
         <v>52</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C119" s="4">
         <v>118</v>
@@ -8362,19 +8361,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8383,7 +8382,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T119" s="7"/>
       <c r="U119" s="5"/>
@@ -8393,7 +8392,7 @@
         <v>52</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C120" s="4">
         <v>119</v>
@@ -8411,19 +8410,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -8432,7 +8431,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T120" s="7"/>
       <c r="U120" s="5"/>
@@ -8442,7 +8441,7 @@
         <v>52</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
@@ -8460,19 +8459,19 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8489,7 +8488,7 @@
         <v>52</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C122" s="4">
         <v>121</v>
@@ -8507,16 +8506,16 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -8526,7 +8525,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T122" s="7"/>
       <c r="U122" s="5"/>
@@ -8536,7 +8535,7 @@
         <v>52</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C123" s="4">
         <v>122</v>
@@ -8554,19 +8553,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8575,7 +8574,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T123" s="7"/>
       <c r="U123" s="5"/>
@@ -8585,7 +8584,7 @@
         <v>52</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C124" s="4">
         <v>123</v>
@@ -8603,19 +8602,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8632,7 +8631,7 @@
         <v>52</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C125" s="4">
         <v>124</v>
@@ -8650,19 +8649,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8671,7 +8670,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T125" s="7"/>
       <c r="U125" s="5"/>
@@ -8681,7 +8680,7 @@
         <v>52</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C126" s="4">
         <v>125</v>
@@ -8699,16 +8698,16 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8718,7 +8717,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T126" s="7"/>
       <c r="U126" s="5"/>
@@ -8728,7 +8727,7 @@
         <v>52</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C127" s="4">
         <v>126</v>
@@ -8746,16 +8745,16 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -8765,7 +8764,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T127" s="7"/>
       <c r="U127" s="5"/>
@@ -8775,7 +8774,7 @@
         <v>52</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C128" s="4">
         <v>127</v>
@@ -8793,19 +8792,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8822,7 +8821,7 @@
         <v>52</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C129" s="4">
         <v>128</v>
@@ -8840,19 +8839,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8861,7 +8860,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="T129" s="7"/>
       <c r="U129" s="5"/>
@@ -8871,7 +8870,7 @@
         <v>52</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C130" s="4">
         <v>129</v>
@@ -8889,16 +8888,16 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -8908,7 +8907,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T130" s="7"/>
       <c r="U130" s="5"/>
@@ -8918,7 +8917,7 @@
         <v>52</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C131" s="4">
         <v>130</v>
@@ -8936,19 +8935,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
